--- a/Assets/Tables/behaviour_option.xlsx
+++ b/Assets/Tables/behaviour_option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C597E-70A2-41E3-87C2-BBEF9A98A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D0CD9-959D-49C9-90D2-E38D962D8D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="3765" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="4035" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="behaviour_option" sheetId="2" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>string,string</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
     <t>bundle</t>
   </si>
   <si>
@@ -90,6 +87,10 @@
   </si>
   <si>
     <t>on_click()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -220,14 +221,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,7 +509,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,98 +524,98 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11"/>
       <c r="D1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="str">
         <f>A4</f>
         <v>brain</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" ref="C5:C7" si="0">A5</f>
         <v>hand</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>bag</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>foot</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/behaviour_option.xlsx
+++ b/Assets/Tables/behaviour_option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1D0CD9-959D-49C9-90D2-E38D962D8D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66CBCC-1234-4D95-8C29-07F4C8F067C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4035" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="2730" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="behaviour_option" sheetId="2" r:id="rId1"/>
@@ -33,64 +33,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>string,string</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>view_path</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>behaviour_options</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>brain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>foot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>string,string</t>
-  </si>
-  <si>
-    <t>bundle</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>string key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_path</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>behaviour_options</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_event</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击事件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>brain</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hand</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>foot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>on_click()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +107,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,6 +115,7 @@
       <sz val="11"/>
       <color theme="5"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -124,6 +123,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -145,14 +145,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -192,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,12 +202,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -509,119 +495,118 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
+      <c r="A3" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
+      <c r="A4" s="6">
+        <v>199000001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="str">
-        <f>A4</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>B4</f>
         <v>brain</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
+      <c r="A5" s="6">
+        <v>199000002</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:C7" si="0">A5</f>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>B5</f>
         <v>hand</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
+      <c r="A6" s="6">
+        <v>199000003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" ref="D6:D7" si="0">B6</f>
         <v>bag</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
+      <c r="A7" s="6">
+        <v>199000004</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>foot</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Tables/behaviour_option.xlsx
+++ b/Assets/Tables/behaviour_option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66CBCC-1234-4D95-8C29-07F4C8F067C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5658A0-373C-4C01-ADA4-3C0FA6B5FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="2730" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="behaviour_option" sheetId="2" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>brain</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>hand</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>miracle</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +498,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -519,10 +522,10 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1</v>
@@ -531,10 +534,10 @@
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -547,15 +550,15 @@
       <c r="A4" s="6">
         <v>199000001</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>B4</f>
-        <v>brain</v>
+        <v>miracle</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -563,7 +566,7 @@
         <v>199000002</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
@@ -577,29 +580,29 @@
       <c r="A6" s="6">
         <v>199000003</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f t="shared" ref="D6:D7" si="0">B6</f>
+        <f t="shared" ref="D6" si="0">B6</f>
         <v>bag</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>199000004</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7" si="1">B7</f>
         <v>foot</v>
       </c>
     </row>

--- a/Assets/Tables/behaviour_option.xlsx
+++ b/Assets/Tables/behaviour_option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\Doom\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5658A0-373C-4C01-ADA4-3C0FA6B5FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21B3F3-5F19-4BBB-B560-60075E55840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="27090" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="behaviour_option" sheetId="2" r:id="rId1"/>
@@ -207,6 +207,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -214,9 +217,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +498,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,10 +515,10 @@
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -527,10 +527,10 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -550,60 +550,60 @@
       <c r="A4" s="6">
         <v>199000001</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>B4</f>
-        <v>miracle</v>
+        <v>hand</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>199000002</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f>B5</f>
-        <v>hand</v>
+        <f t="shared" ref="D5" si="0">B5</f>
+        <v>foot</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>199000003</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f t="shared" ref="D6" si="0">B6</f>
-        <v>bag</v>
+        <f>B6</f>
+        <v>miracle</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>199000004</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="str">
         <f t="shared" ref="D7" si="1">B7</f>
-        <v>foot</v>
+        <v>bag</v>
       </c>
     </row>
   </sheetData>
